--- a/AAII_Financials/Quarterly/FERG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FERG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>FERG</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,137 +665,149 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7971000</v>
+      </c>
+      <c r="E8" s="3">
         <v>7284000</v>
       </c>
-      <c r="E8" s="3">
-        <v>13311000</v>
-      </c>
       <c r="F8" s="3">
+        <v>6508000</v>
+      </c>
+      <c r="G8" s="3">
         <v>6803000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12483000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5916000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10309000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5372000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10047000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5536000</v>
+      </c>
+      <c r="E9" s="3">
         <v>5079000</v>
       </c>
-      <c r="E9" s="3">
-        <v>9195000</v>
-      </c>
       <c r="F9" s="3">
+        <v>4519000</v>
+      </c>
+      <c r="G9" s="3">
         <v>4676000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>8596000</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
         <v>14432000</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>14724000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2435000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2205000</v>
       </c>
-      <c r="E10" s="3">
-        <v>4116000</v>
-      </c>
       <c r="F10" s="3">
+        <v>1989000</v>
+      </c>
+      <c r="G10" s="3">
         <v>2127000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3887000</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
         <v>-4123000</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>-4677000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -807,8 +819,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -836,8 +849,11 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -865,8 +881,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -879,52 +898,58 @@
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
         <v>7000</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
         <v>4000</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>165000</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E15" s="3">
         <v>78000</v>
       </c>
-      <c r="E15" s="3">
-        <v>146000</v>
-      </c>
       <c r="F15" s="3">
+        <v>72000</v>
+      </c>
+      <c r="G15" s="3">
         <v>74000</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3">
         <v>141000</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -933,66 +958,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7157000</v>
+      </c>
+      <c r="E17" s="3">
         <v>6572000</v>
       </c>
-      <c r="E17" s="3">
-        <v>12017000</v>
-      </c>
       <c r="F17" s="3">
+        <v>5953000</v>
+      </c>
+      <c r="G17" s="3">
         <v>6064000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11260000</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
         <v>9540000</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>9310000</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>814000</v>
+      </c>
+      <c r="E18" s="3">
         <v>712000</v>
       </c>
-      <c r="E18" s="3">
-        <v>1294000</v>
-      </c>
       <c r="F18" s="3">
+        <v>555000</v>
+      </c>
+      <c r="G18" s="3">
         <v>739000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1223000</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
         <v>769000</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>737000</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1004,52 +1036,56 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-39000</v>
       </c>
       <c r="E20" s="3">
-        <v>2000</v>
+        <v>-22000</v>
       </c>
       <c r="F20" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="G20" s="3">
         <v>-28000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2000</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
         <v>27000</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>790000</v>
+        <v>852000</v>
       </c>
       <c r="E21" s="3">
-        <v>1442000</v>
+        <v>768000</v>
       </c>
       <c r="F21" s="3">
+        <v>604000</v>
+      </c>
+      <c r="G21" s="3">
         <v>785000</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1062,95 +1098,107 @@
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>22000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>53000</v>
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3">
         <v>69000</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3">
         <v>76000</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>83000</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>775000</v>
+      </c>
+      <c r="E23" s="3">
         <v>690000</v>
       </c>
-      <c r="E23" s="3">
-        <v>1243000</v>
-      </c>
       <c r="F23" s="3">
+        <v>532000</v>
+      </c>
+      <c r="G23" s="3">
         <v>711000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1152000</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
         <v>720000</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>664000</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>193000</v>
+      </c>
+      <c r="E24" s="3">
         <v>144000</v>
       </c>
-      <c r="E24" s="3">
-        <v>272000</v>
-      </c>
       <c r="F24" s="3">
+        <v>96000</v>
+      </c>
+      <c r="G24" s="3">
         <v>176000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>109000</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
         <v>127000</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1178,66 +1226,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>582000</v>
+      </c>
+      <c r="E26" s="3">
         <v>546000</v>
       </c>
-      <c r="E26" s="3">
-        <v>971000</v>
-      </c>
       <c r="F26" s="3">
+        <v>436000</v>
+      </c>
+      <c r="G26" s="3">
         <v>535000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1043000</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
         <v>593000</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>517000</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>582000</v>
+      </c>
+      <c r="E27" s="3">
         <v>546000</v>
       </c>
-      <c r="E27" s="3">
-        <v>971000</v>
-      </c>
       <c r="F27" s="3">
+        <v>436000</v>
+      </c>
+      <c r="G27" s="3">
         <v>535000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1043000</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="3">
         <v>593000</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>517000</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1265,37 +1322,43 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>25000</v>
       </c>
-      <c r="F29" s="3">
-        <v>25000</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>7000</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
         <v>-313000</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
         <v>-23000</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1323,8 +1386,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1352,66 +1418,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>39000</v>
       </c>
       <c r="E32" s="3">
-        <v>-2000</v>
+        <v>22000</v>
       </c>
       <c r="F32" s="3">
+        <v>23000</v>
+      </c>
+      <c r="G32" s="3">
         <v>28000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2000</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
         <v>-27000</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>580000</v>
+      </c>
+      <c r="E33" s="3">
         <v>546000</v>
       </c>
-      <c r="E33" s="3">
-        <v>996000</v>
-      </c>
       <c r="F33" s="3">
+        <v>436000</v>
+      </c>
+      <c r="G33" s="3">
         <v>560000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1050000</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="I33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="3">
         <v>280000</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>494000</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1439,71 +1514,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>580000</v>
+      </c>
+      <c r="E35" s="3">
         <v>546000</v>
       </c>
-      <c r="E35" s="3">
-        <v>996000</v>
-      </c>
       <c r="F35" s="3">
+        <v>436000</v>
+      </c>
+      <c r="G35" s="3">
         <v>560000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1050000</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="I35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="3">
         <v>280000</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>494000</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1515,8 +1599,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1528,37 +1613,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>771000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1160000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>828000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2166000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1335000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1723000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2115000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>775000</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1571,139 +1660,154 @@
       <c r="F42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
         <v>9000</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>9000</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3610000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3431000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2931000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3066000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3335000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2622000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3042000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2984000</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4333000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4113000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3776000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3660000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3426000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3011000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2880000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2970000</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>837000</v>
+      </c>
+      <c r="E45" s="3">
         <v>824000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>796000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>780000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>22000</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9551000</v>
+      </c>
+      <c r="E46" s="3">
         <v>9528000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8331000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9672000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8101000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7357000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8057000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6760000</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1716,81 +1820,90 @@
       <c r="F47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="3">
         <v>451000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>414000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>393000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>419000</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2576000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2506000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2471000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2418000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2200000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2224000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2500000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2614000</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2830000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2563000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2551000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1883000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2303000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2279000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2242000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2142000</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1818,8 +1931,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1847,37 +1963,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>704000</v>
+      </c>
+      <c r="E52" s="3">
         <v>709000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>747000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1341000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>430000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>205000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>264000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>285000</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1905,37 +2027,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15661000</v>
+      </c>
+      <c r="E54" s="3">
         <v>15306000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14100000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15314000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13485000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12479000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13456000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12220000</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1947,8 +2075,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1960,182 +2089,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3607000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3630000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3063000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3213000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4022000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3118000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3591000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3120000</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>628000</v>
+        <v>250000</v>
       </c>
       <c r="E58" s="3">
-        <v>616000</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3">
+        <v>300000</v>
+      </c>
+      <c r="F58" s="3">
+        <v>296000</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3">
         <v>446000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>476000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>812000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>987000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1862000</v>
+        <v>1942000</v>
       </c>
       <c r="E59" s="3">
-        <v>1325000</v>
+        <v>2190000</v>
       </c>
       <c r="F59" s="3">
+        <v>1645000</v>
+      </c>
+      <c r="G59" s="3">
         <v>3192000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>375000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>345000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>346000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>328000</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5799000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6120000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5004000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6405000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4843000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3939000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4749000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4435000</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4064000</v>
+        <v>3679000</v>
       </c>
       <c r="E61" s="3">
-        <v>3581000</v>
+        <v>3221000</v>
       </c>
       <c r="F61" s="3">
-        <v>3067000</v>
+        <v>2749000</v>
       </c>
       <c r="G61" s="3">
+        <v>2271000</v>
+      </c>
+      <c r="H61" s="3">
         <v>3355000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3521000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3709000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3199000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>619000</v>
+        <v>1518000</v>
       </c>
       <c r="E62" s="3">
-        <v>670000</v>
+        <v>1462000</v>
       </c>
       <c r="F62" s="3">
-        <v>685000</v>
+        <v>1502000</v>
       </c>
       <c r="G62" s="3">
+        <v>1481000</v>
+      </c>
+      <c r="H62" s="3">
         <v>477000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>526000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>627000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>481000</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2163,8 +2311,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2192,8 +2343,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2221,37 +2375,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10996000</v>
+      </c>
+      <c r="E66" s="3">
         <v>10803000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9255000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10157000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8675000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7986000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9085000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8115000</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2263,8 +2423,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2292,8 +2453,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2321,8 +2485,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2350,8 +2517,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2379,37 +2549,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="3">
+      <c r="D72" s="3">
+        <v>7594000</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
         <v>6542000</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
         <v>6158000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4454000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5553000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>9260000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2437,8 +2613,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2466,8 +2645,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2495,37 +2677,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4665000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4503000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4845000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5157000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4810000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4493000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4371000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4105000</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2553,71 +2741,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>580000</v>
+      </c>
+      <c r="E81" s="3">
         <v>546000</v>
       </c>
-      <c r="E81" s="3">
-        <v>996000</v>
-      </c>
       <c r="F81" s="3">
+        <v>436000</v>
+      </c>
+      <c r="G81" s="3">
         <v>560000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1050000</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="I81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="3">
         <v>280000</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>494000</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2629,23 +2826,24 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E83" s="3">
         <v>78000</v>
       </c>
-      <c r="E83" s="3">
-        <v>146000</v>
-      </c>
       <c r="F83" s="3">
+        <v>72000</v>
+      </c>
+      <c r="G83" s="3">
         <v>74000</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>5</v>
       </c>
@@ -2658,8 +2856,11 @@
       <c r="K83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2687,8 +2888,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2716,8 +2920,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2745,8 +2952,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2774,8 +2984,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2803,23 +3016,26 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>468000</v>
+      </c>
+      <c r="E89" s="3">
         <v>466000</v>
       </c>
-      <c r="E89" s="3">
-        <v>215000</v>
-      </c>
       <c r="F89" s="3">
+        <v>228000</v>
+      </c>
+      <c r="G89" s="3">
         <v>-13000</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>5</v>
       </c>
@@ -2832,8 +3048,11 @@
       <c r="K89" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2845,23 +3064,24 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-95000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-74000</v>
       </c>
-      <c r="E91" s="3">
-        <v>-121000</v>
-      </c>
       <c r="F91" s="3">
+        <v>-70000</v>
+      </c>
+      <c r="G91" s="3">
         <v>-51000</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
@@ -2874,8 +3094,11 @@
       <c r="K91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2903,8 +3126,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2932,23 +3158,26 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-459000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-123000</v>
       </c>
-      <c r="E94" s="3">
-        <v>-340000</v>
-      </c>
       <c r="F94" s="3">
+        <v>-260000</v>
+      </c>
+      <c r="G94" s="3">
         <v>-80000</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
@@ -2961,8 +3190,11 @@
       <c r="K94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2974,16 +3206,17 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-174000</v>
       </c>
       <c r="E96" s="3">
-        <v>-364000</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3003,8 +3236,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3032,8 +3268,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3061,8 +3300,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3090,23 +3332,26 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-373000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-8000</v>
       </c>
-      <c r="E100" s="3">
-        <v>-363000</v>
-      </c>
       <c r="F100" s="3">
+        <v>-1293000</v>
+      </c>
+      <c r="G100" s="3">
         <v>930000</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>5</v>
       </c>
@@ -3119,22 +3364,25 @@
       <c r="K100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-7000</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-12000</v>
       </c>
       <c r="F101" s="3">
         <v>-6000</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
+      <c r="G101" s="3">
+        <v>-6000</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>5</v>
@@ -3148,23 +3396,26 @@
       <c r="K101" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-385000</v>
+      </c>
+      <c r="E102" s="3">
         <v>328000</v>
       </c>
-      <c r="E102" s="3">
-        <v>-500000</v>
-      </c>
       <c r="F102" s="3">
+        <v>-1331000</v>
+      </c>
+      <c r="G102" s="3">
         <v>831000</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>5</v>
       </c>
@@ -3175,6 +3426,9 @@
         <v>5</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FERG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FERG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
   <si>
     <t>FERG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,149 +665,173 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6825000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7931000</v>
+      </c>
+      <c r="F8" s="3">
         <v>7971000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>7284000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>6508000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>6803000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>12483000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>5916000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>10309000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>5372000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>10047000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4763000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5510000</v>
+      </c>
+      <c r="F9" s="3">
         <v>5536000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>5079000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>4519000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>4676000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>8596000</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>14432000</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>14724000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2062000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2421000</v>
+      </c>
+      <c r="F10" s="3">
         <v>2435000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>2205000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1989000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>2127000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>3887000</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>-4123000</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>-4677000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -820,8 +844,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -852,8 +878,14 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -884,8 +916,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,55 +939,67 @@
       <c r="G14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
         <v>7000</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>4000</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>165000</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>81000</v>
+      </c>
+      <c r="F15" s="3">
         <v>77000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>78000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>72000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>74000</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="3">
         <v>141000</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -959,72 +1009,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6276000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>7100000</v>
+      </c>
+      <c r="F17" s="3">
         <v>7157000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>6572000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>5953000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>6064000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>11260000</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>9540000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>9310000</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>549000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>831000</v>
+      </c>
+      <c r="F18" s="3">
         <v>814000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>712000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>555000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>739000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>1223000</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>769000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>737000</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1037,61 +1101,69 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-39000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="G20" s="3">
         <v>-22000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-23000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-28000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-2000</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>27000</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>576000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>873000</v>
+      </c>
+      <c r="F21" s="3">
         <v>852000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>768000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>604000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>785000</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1101,8 +1173,14 @@
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1118,87 +1196,105 @@
       <c r="G22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3">
         <v>69000</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>76000</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>83000</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>495000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>792000</v>
+      </c>
+      <c r="F23" s="3">
         <v>775000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>690000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>532000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>711000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1152000</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>720000</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>664000</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>197000</v>
+      </c>
+      <c r="F24" s="3">
         <v>193000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>144000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>96000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>176000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>109000</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>127000</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1229,72 +1325,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>374000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>595000</v>
+      </c>
+      <c r="F26" s="3">
         <v>582000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>546000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>436000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>535000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1043000</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>593000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>517000</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>374000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>595000</v>
+      </c>
+      <c r="F27" s="3">
         <v>582000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>546000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>436000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>535000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1043000</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>593000</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>517000</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1325,40 +1439,52 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-2000</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>25000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>7000</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
         <v>-313000</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>-23000</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1389,8 +1515,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1421,72 +1553,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E32" s="3">
         <v>39000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
+        <v>39000</v>
+      </c>
+      <c r="G32" s="3">
         <v>22000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>23000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>28000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>2000</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>-27000</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>374000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>595000</v>
+      </c>
+      <c r="F33" s="3">
         <v>580000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>546000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>436000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>560000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1050000</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>280000</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>494000</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1517,77 +1667,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>374000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>595000</v>
+      </c>
+      <c r="F35" s="3">
         <v>580000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>546000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>436000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>560000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1050000</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>280000</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>494000</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1600,8 +1768,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1614,54 +1784,62 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>597000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>638000</v>
+      </c>
+      <c r="F41" s="3">
         <v>771000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1160000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>828000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2166000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1335000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1723000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2115000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>775000</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -1670,144 +1848,174 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>9000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>9000</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3166000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3609000</v>
+      </c>
+      <c r="F43" s="3">
         <v>3610000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>3431000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>2931000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>3066000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>3335000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>2622000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>3042000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2984000</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4173000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>4233000</v>
+      </c>
+      <c r="F44" s="3">
         <v>4333000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>4113000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>3776000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>3660000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>3426000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>3011000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>2880000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>2970000</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>832000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>902000</v>
+      </c>
+      <c r="F45" s="3">
         <v>837000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>824000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>796000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>780000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>5000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>11000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>22000</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8768000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>9382000</v>
+      </c>
+      <c r="F46" s="3">
         <v>9551000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>9528000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>8331000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>9672000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>8101000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>7357000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>8057000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>6760000</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1823,87 +2031,105 @@
       <c r="G47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="3">
         <v>451000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>414000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>393000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>419000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2776000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2635000</v>
+      </c>
+      <c r="F48" s="3">
         <v>2576000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2506000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2471000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2418000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2200000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2224000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2500000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2614000</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2094000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2042000</v>
+      </c>
+      <c r="F49" s="3">
         <v>2830000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2563000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2551000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1883000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>2303000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>2279000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2242000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2142000</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1934,8 +2160,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1966,40 +2198,52 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1578000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1466000</v>
+      </c>
+      <c r="F52" s="3">
         <v>704000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>709000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>747000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1341000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>430000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>205000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>264000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>285000</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2030,40 +2274,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15216000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>15525000</v>
+      </c>
+      <c r="F54" s="3">
         <v>15661000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>15306000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>14100000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>15314000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>13485000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>12479000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>13456000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>12220000</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2076,8 +2332,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2090,200 +2348,238 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3155000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3335000</v>
+      </c>
+      <c r="F57" s="3">
         <v>3607000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3630000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3063000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3213000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>4022000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>3118000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3591000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3120000</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3">
         <v>250000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>300000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>296000</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3">
         <v>446000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>476000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>812000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>987000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1759000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1760000</v>
+      </c>
+      <c r="F59" s="3">
         <v>1942000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2190000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1645000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3192000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>375000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>345000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>346000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>328000</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4914000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5095000</v>
+      </c>
+      <c r="F60" s="3">
         <v>5799000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>6120000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5004000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>6405000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4843000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3939000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4749000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4435000</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3936000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3759000</v>
+      </c>
+      <c r="F61" s="3">
         <v>3679000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>3221000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2749000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2271000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>3355000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>3521000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3709000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3199000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1641000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1550000</v>
+      </c>
+      <c r="F62" s="3">
         <v>1518000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1462000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1502000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1481000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>477000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>526000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>627000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>481000</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2314,8 +2610,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2346,8 +2648,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2378,40 +2686,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10491000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>10404000</v>
+      </c>
+      <c r="F66" s="3">
         <v>10996000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>10803000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>9255000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>10157000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>8675000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>7986000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>9085000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>8115000</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2424,8 +2744,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2456,8 +2778,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2488,8 +2816,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2520,8 +2854,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2552,40 +2892,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
         <v>7594000</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
         <v>6542000</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
         <v>6158000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>4454000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>5553000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>9260000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2616,8 +2968,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2648,8 +3006,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2680,40 +3044,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4725000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5121000</v>
+      </c>
+      <c r="F76" s="3">
         <v>4665000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>4503000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>4845000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>5157000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>4810000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>4493000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4371000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>4105000</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2744,77 +3120,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>374000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>595000</v>
+      </c>
+      <c r="F81" s="3">
         <v>580000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>546000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>436000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>560000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1050000</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>280000</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>494000</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2827,29 +3221,31 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>81000</v>
+      </c>
+      <c r="F83" s="3">
         <v>77000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>78000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>72000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>74000</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>5</v>
       </c>
@@ -2859,8 +3255,14 @@
       <c r="L83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2891,8 +3293,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2923,8 +3331,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2955,8 +3369,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2987,8 +3407,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3019,29 +3445,35 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>673000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>498000</v>
+      </c>
+      <c r="F89" s="3">
         <v>468000</v>
       </c>
-      <c r="E89" s="3">
-        <v>466000</v>
-      </c>
-      <c r="F89" s="3">
-        <v>228000</v>
-      </c>
       <c r="G89" s="3">
+        <v>452000</v>
+      </c>
+      <c r="H89" s="3">
+        <v>242000</v>
+      </c>
+      <c r="I89" s="3">
         <v>-13000</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>5</v>
       </c>
@@ -3051,8 +3483,14 @@
       <c r="L89" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3065,29 +3503,31 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-147000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-95000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
+        <v>-95000</v>
+      </c>
+      <c r="G91" s="3">
         <v>-74000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-70000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-51000</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>5</v>
       </c>
@@ -3097,8 +3537,14 @@
       <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3129,8 +3575,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3161,29 +3613,35 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-321000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-459000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-123000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-260000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-80000</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>5</v>
       </c>
@@ -3193,8 +3651,14 @@
       <c r="L94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3207,20 +3671,22 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-174000</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -3239,8 +3705,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3271,8 +3743,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3303,8 +3781,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3335,29 +3819,35 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-387000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-519000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-373000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-8000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1293000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>930000</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>5</v>
       </c>
@@ -3367,29 +3857,35 @@
       <c r="L100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-21000</v>
       </c>
-      <c r="E101" s="3">
-        <v>-7000</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="I101" s="3">
         <v>-6000</v>
       </c>
-      <c r="G101" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>5</v>
       </c>
@@ -3399,29 +3895,35 @@
       <c r="L101" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-133000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-385000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>328000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1331000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>831000</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>5</v>
       </c>
@@ -3429,6 +3931,12 @@
         <v>5</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FERG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FERG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>FERG</t>
   </si>
@@ -3520,16 +3520,16 @@
         <v>-95000</v>
       </c>
       <c r="G91" s="3">
-        <v>-74000</v>
+        <v>-73000</v>
       </c>
       <c r="H91" s="3">
-        <v>-70000</v>
+        <v>-71000</v>
       </c>
       <c r="I91" s="3">
         <v>-51000</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
+      <c r="J91" s="3">
+        <v>-114000</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>5</v>

--- a/AAII_Financials/Quarterly/FERG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FERG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
   <si>
     <t>FERG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,173 +665,185 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44043</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7140000</v>
+      </c>
+      <c r="E8" s="3">
         <v>6825000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7931000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7971000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7284000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6508000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6803000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12483000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5916000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10309000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5372000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10047000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4763000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5510000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5536000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5079000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4519000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4676000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8596000</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>14432000</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>14724000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2140000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2062000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2421000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2435000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2205000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1989000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2127000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3887000</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>-4123000</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>-4677000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -846,8 +858,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -884,8 +897,11 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -922,13 +938,16 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
+      <c r="D14" s="3">
+        <v>127000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>5</v>
@@ -945,23 +964,26 @@
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>7000</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>4000</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>165000</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -972,34 +994,37 @@
         <v>81000</v>
       </c>
       <c r="F15" s="3">
+        <v>81000</v>
+      </c>
+      <c r="G15" s="3">
         <v>77000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>78000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>72000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>74000</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3">
         <v>141000</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1011,84 +1036,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6643000</v>
+      </c>
+      <c r="E17" s="3">
         <v>6276000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7100000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7157000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6572000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5953000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6064000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11260000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>9540000</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>9310000</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>497000</v>
+      </c>
+      <c r="E18" s="3">
         <v>549000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>831000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>814000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>712000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>555000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>739000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1223000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>769000</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>737000</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1103,70 +1135,74 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-54000</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-39000</v>
       </c>
       <c r="F20" s="3">
         <v>-39000</v>
       </c>
       <c r="G20" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="H20" s="3">
         <v>-22000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-23000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-28000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2000</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>27000</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>528000</v>
+      </c>
+      <c r="E21" s="3">
         <v>576000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>873000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>852000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>768000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>604000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>785000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1179,8 +1215,11 @@
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1202,99 +1241,108 @@
       <c r="I22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>69000</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>76000</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>83000</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>447000</v>
+      </c>
+      <c r="E23" s="3">
         <v>495000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>792000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>775000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>690000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>532000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>711000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1152000</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>720000</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>664000</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E24" s="3">
         <v>121000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>197000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>193000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>144000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>96000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>176000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>109000</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>127000</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1331,84 +1379,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>336000</v>
+      </c>
+      <c r="E26" s="3">
         <v>374000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>595000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>582000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>546000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>436000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>535000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1043000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>593000</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>517000</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>336000</v>
+      </c>
+      <c r="E27" s="3">
         <v>374000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>595000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>582000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>546000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>436000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>535000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1043000</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>593000</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>517000</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1445,8 +1502,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1457,34 +1517,37 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-2000</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>25000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>7000</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>-313000</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>-23000</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1521,8 +1584,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1559,84 +1625,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E32" s="3">
         <v>54000</v>
-      </c>
-      <c r="E32" s="3">
-        <v>39000</v>
       </c>
       <c r="F32" s="3">
         <v>39000</v>
       </c>
       <c r="G32" s="3">
+        <v>39000</v>
+      </c>
+      <c r="H32" s="3">
         <v>22000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>23000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>28000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2000</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>-27000</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>336000</v>
+      </c>
+      <c r="E33" s="3">
         <v>374000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>595000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>580000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>546000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>436000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>560000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1050000</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>280000</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>494000</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1673,89 +1748,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>336000</v>
+      </c>
+      <c r="E35" s="3">
         <v>374000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>595000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>580000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>546000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>436000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>560000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1050000</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>280000</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>494000</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44043</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1770,8 +1854,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1786,46 +1871,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>625000</v>
+      </c>
+      <c r="E41" s="3">
         <v>597000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>638000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>771000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1160000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>828000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2166000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1335000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1723000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2115000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>775000</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1854,168 +1943,183 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="M42" s="3">
         <v>9000</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>9000</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3382000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3166000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3609000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3610000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3431000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2931000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3066000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3335000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2622000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3042000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2984000</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4089000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4173000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4233000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4333000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4113000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3776000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3660000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3426000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3011000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2880000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2970000</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>813000</v>
+      </c>
+      <c r="E45" s="3">
         <v>832000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>902000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>837000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>824000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>796000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>780000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>22000</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8909000</v>
+      </c>
+      <c r="E46" s="3">
         <v>8768000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9382000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9551000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9528000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8331000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9672000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8101000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7357000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8057000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6760000</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2037,99 +2141,108 @@
       <c r="I47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
         <v>451000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>414000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>393000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>419000</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2863000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2776000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2635000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2576000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2506000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2471000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2418000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2200000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2224000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2500000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2614000</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2751000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2094000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2042000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2830000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2563000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2551000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1883000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2303000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2279000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2242000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2142000</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2166,8 +2279,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2204,46 +2320,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>841000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1578000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1466000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>704000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>709000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>747000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1341000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>430000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>205000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>264000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>285000</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2280,46 +2402,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15364000</v>
+      </c>
+      <c r="E54" s="3">
         <v>15216000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15525000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15661000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15306000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14100000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>15314000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13485000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12479000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13456000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12220000</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2334,8 +2462,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2350,236 +2479,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3297000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3155000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3335000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3607000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3630000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3063000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3213000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4022000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3118000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3591000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3120000</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
+      <c r="D58" s="3">
+        <v>55000</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3">
         <v>250000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>300000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>296000</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3">
         <v>446000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>476000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>812000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>987000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1773000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1759000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1760000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1942000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2190000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1645000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3192000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>375000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>345000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>346000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>328000</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5125000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4914000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5095000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5799000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6120000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5004000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6405000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4843000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3939000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4749000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4435000</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3839000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3936000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3759000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3679000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3221000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2749000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2271000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3355000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3521000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3709000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3199000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1679000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1641000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1550000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1518000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1462000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1502000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1481000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>477000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>526000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>627000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>481000</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2616,8 +2764,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2654,8 +2805,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2692,46 +2846,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10643000</v>
+      </c>
+      <c r="E66" s="3">
         <v>10491000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10404000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10996000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10803000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9255000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10157000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8675000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7986000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9085000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8115000</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2746,8 +2906,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2784,8 +2945,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2822,8 +2986,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2860,8 +3027,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2898,46 +3068,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
+      <c r="D72" s="3">
+        <v>8128000</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
         <v>7594000</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
         <v>6542000</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>6158000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4454000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5553000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9260000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2974,8 +3150,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3012,8 +3191,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3050,46 +3232,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4721000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4725000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5121000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4665000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4503000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4845000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5157000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4810000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4493000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4371000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4105000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3126,89 +3314,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44043</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>336000</v>
+      </c>
+      <c r="E81" s="3">
         <v>374000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>595000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>580000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>546000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>436000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>560000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1050000</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>280000</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>494000</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3223,8 +3420,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3235,20 +3433,20 @@
         <v>81000</v>
       </c>
       <c r="F83" s="3">
+        <v>81000</v>
+      </c>
+      <c r="G83" s="3">
         <v>77000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>78000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>72000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>74000</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
       </c>
@@ -3261,8 +3459,11 @@
       <c r="N83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3299,8 +3500,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3337,8 +3541,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3375,8 +3582,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3413,8 +3623,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3451,32 +3664,35 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>631000</v>
+      </c>
+      <c r="E89" s="3">
         <v>673000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>498000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>468000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>452000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>242000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-13000</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>5</v>
       </c>
@@ -3489,8 +3705,11 @@
       <c r="N89" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3505,35 +3724,36 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-119000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-147000</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-95000</v>
       </c>
       <c r="F91" s="3">
         <v>-95000</v>
       </c>
       <c r="G91" s="3">
+        <v>-95000</v>
+      </c>
+      <c r="H91" s="3">
         <v>-73000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-71000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-51000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-114000</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
@@ -3543,8 +3763,11 @@
       <c r="N91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3581,8 +3804,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3619,32 +3845,35 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-118000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-321000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-104000</v>
       </c>
-      <c r="F94" s="3">
-        <v>-459000</v>
-      </c>
       <c r="G94" s="3">
-        <v>-123000</v>
+        <v>-471000</v>
       </c>
       <c r="H94" s="3">
+        <v>-111000</v>
+      </c>
+      <c r="I94" s="3">
         <v>-260000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-80000</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
       </c>
@@ -3657,8 +3886,11 @@
       <c r="N94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3673,23 +3905,24 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-154000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-174000</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -3711,8 +3944,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3749,8 +3985,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3787,8 +4026,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3825,32 +4067,35 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-483000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-387000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-519000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-373000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-8000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1293000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>930000</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
       </c>
@@ -3863,32 +4108,35 @@
       <c r="N100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>27000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-8000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-21000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-9000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-4000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-6000</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
       </c>
@@ -3901,32 +4149,35 @@
       <c r="N101" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-133000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-385000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>328000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1331000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>831000</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>5</v>
       </c>
@@ -3937,6 +4188,9 @@
         <v>5</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FERG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FERG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
   <si>
     <t>FERG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,185 +665,197 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
         <v>45046</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44592</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7838000</v>
+      </c>
+      <c r="E8" s="3">
         <v>7140000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6825000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7931000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7971000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7284000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6508000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6803000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12483000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5916000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10309000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5372000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10047000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>5436000</v>
+      </c>
+      <c r="E9" s="3">
         <v>5000000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4763000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5510000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5536000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5079000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4519000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4676000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8596000</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>14432000</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
         <v>14724000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2402000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2140000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2062000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2421000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2435000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2205000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1989000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2127000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3887000</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>-4123000</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>-4677000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -859,8 +871,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -900,8 +913,11 @@
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -941,17 +957,20 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E14" s="3">
         <v>127000</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
@@ -967,28 +986,31 @@
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>7000</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>4000</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>165000</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>81000</v>
+        <v>78000</v>
       </c>
       <c r="E15" s="3">
         <v>81000</v>
@@ -997,34 +1019,37 @@
         <v>81000</v>
       </c>
       <c r="G15" s="3">
+        <v>81000</v>
+      </c>
+      <c r="H15" s="3">
         <v>77000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>78000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>72000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>74000</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3">
         <v>141000</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1037,90 +1062,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7056000</v>
+      </c>
+      <c r="E17" s="3">
         <v>6643000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6276000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7100000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7157000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6572000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5953000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6064000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11260000</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>9540000</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>9310000</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>782000</v>
+      </c>
+      <c r="E18" s="3">
         <v>497000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>549000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>831000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>814000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>712000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>555000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>739000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1223000</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>769000</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>737000</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1136,76 +1168,80 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-50000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-54000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-39000</v>
       </c>
       <c r="G20" s="3">
         <v>-39000</v>
       </c>
       <c r="H20" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="I20" s="3">
         <v>-22000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-23000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-28000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2000</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>27000</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>808000</v>
+      </c>
+      <c r="E21" s="3">
         <v>528000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>576000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>873000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>852000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>768000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>604000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>785000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1218,8 +1254,11 @@
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1244,105 +1283,114 @@
       <c r="J22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>69000</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>76000</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>83000</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>730000</v>
+      </c>
+      <c r="E23" s="3">
         <v>447000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>495000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>792000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>775000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>690000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>532000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>711000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1152000</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>720000</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>664000</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E24" s="3">
         <v>111000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>121000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>197000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>193000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>144000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>96000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>176000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>109000</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>127000</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1382,90 +1430,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>584000</v>
+      </c>
+      <c r="E26" s="3">
         <v>336000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>374000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>595000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>582000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>546000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>436000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>535000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1043000</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>593000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3">
         <v>517000</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>584000</v>
+      </c>
+      <c r="E27" s="3">
         <v>336000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>374000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>595000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>582000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>546000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>436000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>535000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1043000</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>593000</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3">
         <v>517000</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1505,8 +1562,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1520,34 +1580,37 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-2000</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>25000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>7000</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>-313000</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>-23000</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1587,8 +1650,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1628,90 +1694,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E32" s="3">
         <v>50000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>54000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>39000</v>
       </c>
       <c r="G32" s="3">
         <v>39000</v>
       </c>
       <c r="H32" s="3">
+        <v>39000</v>
+      </c>
+      <c r="I32" s="3">
         <v>22000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>23000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>28000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2000</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>-27000</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>584000</v>
+      </c>
+      <c r="E33" s="3">
         <v>336000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>374000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>595000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>580000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>546000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>436000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>560000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1050000</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>280000</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3">
         <v>494000</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1751,95 +1826,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>584000</v>
+      </c>
+      <c r="E35" s="3">
         <v>336000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>374000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>595000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>580000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>546000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>436000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>560000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1050000</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>280000</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="3">
         <v>494000</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
         <v>45046</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44592</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1855,8 +1939,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1872,49 +1957,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>601000</v>
+      </c>
+      <c r="E41" s="3">
         <v>625000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>597000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>638000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>771000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1160000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>828000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2166000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1335000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1723000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2115000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>775000</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1946,303 +2035,327 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="N42" s="3">
         <v>9000</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>9000</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3597000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3382000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3166000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3609000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3610000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3431000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2931000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3066000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3335000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2622000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3042000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2984000</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3898000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4089000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4173000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4233000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4333000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4113000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3776000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3660000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3426000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3011000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2880000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2970000</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>981000</v>
+      </c>
+      <c r="E45" s="3">
         <v>813000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>832000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>902000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>837000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>824000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>796000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>780000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>22000</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9077000</v>
+      </c>
+      <c r="E46" s="3">
         <v>8909000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8768000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9382000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9551000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9528000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8331000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9672000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8101000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7357000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8057000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6760000</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
         <v>451000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>414000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>393000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>419000</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3069000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2863000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2776000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2635000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2576000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2506000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2471000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2418000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2200000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2224000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2500000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2614000</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3024000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2751000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2094000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2042000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2830000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2563000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2551000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1883000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2303000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2279000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2242000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2142000</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2282,8 +2395,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2323,49 +2439,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>824000</v>
+      </c>
+      <c r="E52" s="3">
         <v>841000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1578000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1466000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>704000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>709000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>747000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1341000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>430000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>205000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>264000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>285000</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2405,49 +2527,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15994000</v>
+      </c>
+      <c r="E54" s="3">
         <v>15364000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15216000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15525000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15661000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>15306000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>14100000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>15314000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13485000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12479000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13456000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12220000</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2463,8 +2591,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2480,254 +2609,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3408000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3297000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3155000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3335000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3607000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3630000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3063000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3213000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4022000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3118000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3591000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3120000</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>55000</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
+      <c r="E58" s="3">
+        <v>55000</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3">
         <v>250000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>300000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>296000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3">
         <v>446000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>476000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>812000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>987000</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1966000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1773000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1759000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1760000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1942000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2190000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1645000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3192000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>375000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>345000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>346000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>328000</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5429000</v>
+      </c>
+      <c r="E60" s="3">
         <v>5125000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4914000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5095000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5799000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6120000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5004000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6405000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4843000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3939000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4749000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4435000</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3711000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3839000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3936000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3759000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3679000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3221000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2749000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2271000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3355000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3521000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3709000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3199000</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1817000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1679000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1641000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1550000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1518000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1462000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1502000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1481000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>477000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>526000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>627000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>481000</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2767,8 +2915,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2808,8 +2959,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2849,49 +3003,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10957000</v>
+      </c>
+      <c r="E66" s="3">
         <v>10643000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10491000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10404000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10996000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10803000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9255000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10157000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8675000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7986000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9085000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8115000</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2907,8 +3067,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2948,8 +3109,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2989,8 +3153,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3030,8 +3197,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3071,49 +3241,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8557000</v>
+      </c>
+      <c r="E72" s="3">
         <v>8128000</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
         <v>7594000</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
         <v>6542000</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>6158000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4454000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5553000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9260000</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3153,8 +3329,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3194,8 +3373,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3235,49 +3417,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5037000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4721000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4725000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5121000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4665000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4503000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4845000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5157000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4810000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4493000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4371000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4105000</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3317,95 +3505,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
         <v>45046</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44592</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>584000</v>
+      </c>
+      <c r="E81" s="3">
         <v>336000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>374000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>595000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>580000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>546000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>436000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>560000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1050000</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>280000</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P81" s="3">
         <v>494000</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3421,13 +3618,14 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>81000</v>
+        <v>78000</v>
       </c>
       <c r="E83" s="3">
         <v>81000</v>
@@ -3436,20 +3634,20 @@
         <v>81000</v>
       </c>
       <c r="G83" s="3">
+        <v>81000</v>
+      </c>
+      <c r="H83" s="3">
         <v>77000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>78000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>72000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>74000</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>5</v>
       </c>
@@ -3462,8 +3660,11 @@
       <c r="O83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3503,8 +3704,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3544,8 +3748,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3585,8 +3792,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3626,8 +3836,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3667,35 +3880,38 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>921000</v>
+      </c>
+      <c r="E89" s="3">
         <v>631000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>673000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>498000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>468000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>452000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>242000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-13000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>5</v>
       </c>
@@ -3708,8 +3924,11 @@
       <c r="O89" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3725,38 +3944,39 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-119000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-147000</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-95000</v>
       </c>
       <c r="G91" s="3">
         <v>-95000</v>
       </c>
       <c r="H91" s="3">
+        <v>-95000</v>
+      </c>
+      <c r="I91" s="3">
         <v>-73000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-71000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-51000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-114000</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
@@ -3766,8 +3986,11 @@
       <c r="O91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3807,8 +4030,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3848,35 +4074,38 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-511000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-118000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-321000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-104000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-471000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-111000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-260000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-80000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>5</v>
       </c>
@@ -3889,8 +4118,11 @@
       <c r="O94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3906,8 +4138,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3915,17 +4148,17 @@
         <v>-154000</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-154000</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-174000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -3947,8 +4180,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3988,8 +4224,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4029,8 +4268,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4070,35 +4312,38 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-418000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-483000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-387000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-519000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-373000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-8000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1293000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>930000</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>5</v>
       </c>
@@ -4111,35 +4356,38 @@
       <c r="O100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>27000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-8000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-21000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-9000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-4000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-6000</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>5</v>
       </c>
@@ -4152,35 +4400,38 @@
       <c r="O101" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E102" s="3">
         <v>31000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-8000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-133000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-385000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>328000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1331000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>831000</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>5</v>
       </c>
@@ -4191,6 +4442,9 @@
         <v>5</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>5</v>
       </c>
     </row>
